--- a/DATA_goal/Junction_Flooding_157.xlsx
+++ b/DATA_goal/Junction_Flooding_157.xlsx
@@ -461,8 +461,8 @@
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
@@ -655,103 +655,103 @@
         <v>41589.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19.12</v>
+        <v>1.91</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.83</v>
+        <v>1.28</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.04</v>
+        <v>0.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>40.62</v>
+        <v>4.06</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>32.63</v>
+        <v>3.26</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.05</v>
+        <v>1.5</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>47.69</v>
+        <v>4.77</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>23.15</v>
+        <v>2.32</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.66</v>
+        <v>0.97</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>14.58</v>
+        <v>1.46</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16</v>
+        <v>1.6</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>16.66</v>
+        <v>1.67</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.8</v>
+        <v>0.48</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>14.96</v>
+        <v>1.5</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>20.88</v>
+        <v>2.09</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.79</v>
+        <v>1.28</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.25</v>
+        <v>0.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>220.4</v>
+        <v>22.04</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>41.6</v>
+        <v>4.16</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.81</v>
+        <v>1.38</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>27.4</v>
+        <v>2.74</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>13.97</v>
+        <v>1.4</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>24.18</v>
+        <v>2.42</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.2</v>
+        <v>1.22</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.07</v>
+        <v>1.11</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.99</v>
+        <v>1.3</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.49</v>
+        <v>1.65</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>42.29</v>
+        <v>4.23</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.6</v>
+        <v>0.76</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>17.27</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41589.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.84</v>
+        <v>0.88</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.93</v>
+        <v>0.59</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.56</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>18.99</v>
+        <v>1.9</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>15.09</v>
+        <v>1.51</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.96</v>
+        <v>0.7</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>29.26</v>
+        <v>2.93</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>10.7</v>
+        <v>1.07</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.49</v>
+        <v>0.45</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.54</v>
+        <v>0.65</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>7.58</v>
+        <v>0.76</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.83</v>
+        <v>0.78</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>9.66</v>
+        <v>0.97</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.14</v>
+        <v>0.61</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.49</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>97.98999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>19.49</v>
+        <v>1.95</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.39</v>
+        <v>0.64</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>12.72</v>
+        <v>1.27</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.52</v>
+        <v>0.65</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.49</v>
+        <v>0.15</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>13.92</v>
+        <v>1.39</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.23</v>
+        <v>0.52</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.11</v>
+        <v>0.61</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.77</v>
+        <v>0.78</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>26.82</v>
+        <v>2.68</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.45</v>
+        <v>0.34</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.98</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
@@ -863,16 +863,16 @@
         <v>41589.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>0</v>
@@ -881,16 +881,16 @@
         <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.02</v>
+        <v>0.6</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0</v>
@@ -920,46 +920,46 @@
         <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.74</v>
+        <v>0.27</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.36</v>
+        <v>0.64</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41589.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>20.33</v>
+        <v>2.03</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.5</v>
+        <v>1.55</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.22</v>
+        <v>0.12</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>44.07</v>
+        <v>4.41</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>36.74</v>
+        <v>3.67</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.73</v>
+        <v>1.67</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>55.98</v>
+        <v>5.6</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>24.66</v>
+        <v>2.47</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.08</v>
+        <v>1.11</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.49</v>
+        <v>1.65</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>17.78</v>
+        <v>1.78</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>18.96</v>
+        <v>1.9</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.11</v>
+        <v>0.51</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.02</v>
+        <v>1.6</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>22.62</v>
+        <v>2.26</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.44</v>
+        <v>1.34</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>237.01</v>
+        <v>23.7</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>44.62</v>
+        <v>4.46</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.78</v>
+        <v>1.48</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>29.96</v>
+        <v>3</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.74</v>
+        <v>1.57</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.41</v>
+        <v>0.24</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>28.14</v>
+        <v>2.81</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.02</v>
+        <v>1.3</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.43</v>
+        <v>1.14</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13.48</v>
+        <v>1.35</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>18.66</v>
+        <v>1.87</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>50.6</v>
+        <v>5.06</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.390000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>18.45</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41589.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>13.44</v>
+        <v>1.34</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>10.28</v>
+        <v>1.03</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>29.1</v>
+        <v>2.91</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>24.38</v>
+        <v>2.44</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>11.1</v>
+        <v>1.11</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>42.8</v>
+        <v>4.28</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>16.3</v>
+        <v>1.63</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>7.36</v>
+        <v>0.74</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>10.9</v>
+        <v>1.09</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>11.77</v>
+        <v>1.18</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>12.6</v>
+        <v>1.26</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.4</v>
+        <v>0.34</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>10.6</v>
+        <v>1.06</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>14.97</v>
+        <v>1.5</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>8.94</v>
+        <v>0.89</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>154.37</v>
+        <v>15.44</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>29.72</v>
+        <v>2.97</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>19.91</v>
+        <v>1.99</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.64</v>
+        <v>0.16</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>20.71</v>
+        <v>2.07</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>7.57</v>
+        <v>0.76</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>8.93</v>
+        <v>0.89</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>12.35</v>
+        <v>1.24</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>39.08</v>
+        <v>3.91</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>5.55</v>
+        <v>0.55</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>12.2</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41589.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>3.87</v>
+        <v>0.39</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>1.85</v>
+        <v>0.18</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>11.87</v>
+        <v>1.19</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>1.15</v>
+        <v>0.11</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>1.47</v>
+        <v>0.15</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>1.64</v>
+        <v>0.16</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>1.86</v>
+        <v>0.19</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>2.13</v>
+        <v>0.21</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>1.38</v>
+        <v>0.14</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="S7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AE7" s="4" t="n">
         <v>0.02</v>
       </c>
-      <c r="T7" s="4" t="n">
-        <v>15.88</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.2</v>
-      </c>
       <c r="AF7" s="4" t="n">
-        <v>11.31</v>
+        <v>1.13</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>1.71</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41589.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>15.48</v>
+        <v>1.55</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>11.76</v>
+        <v>1.18</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>33.59</v>
+        <v>3.36</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>28.04</v>
+        <v>2.8</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>12.52</v>
+        <v>1.25</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>43.17</v>
+        <v>4.32</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>18.77</v>
+        <v>1.88</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>8.44</v>
+        <v>0.84</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>13.56</v>
+        <v>1.36</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>14.45</v>
+        <v>1.45</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.91</v>
+        <v>0.39</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>12.18</v>
+        <v>1.22</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>17.23</v>
+        <v>1.72</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>10.21</v>
+        <v>1.02</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>178.22</v>
+        <v>17.82</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>33.9</v>
+        <v>3.39</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>11.24</v>
+        <v>1.12</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>22.8</v>
+        <v>2.28</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>12</v>
+        <v>1.2</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.78</v>
+        <v>0.18</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>21.44</v>
+        <v>2.14</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>9.9</v>
+        <v>0.99</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>10.26</v>
+        <v>1.03</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>14.24</v>
+        <v>1.42</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>38.82</v>
+        <v>3.88</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>6.4</v>
+        <v>0.64</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>14.03</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41589.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>17.03</v>
+        <v>1.7</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>12.91</v>
+        <v>1.29</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>36.97</v>
+        <v>3.7</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>30.81</v>
+        <v>3.08</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>13.68</v>
+        <v>1.37</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>51.71</v>
+        <v>5.17</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>20.64</v>
+        <v>2.06</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>13.83</v>
+        <v>1.38</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>14.91</v>
+        <v>1.49</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>15.87</v>
+        <v>1.59</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.3</v>
+        <v>0.43</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>13.38</v>
+        <v>1.34</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>19.01</v>
+        <v>1.9</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>11.2</v>
+        <v>1.12</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>196.53</v>
+        <v>19.65</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>37.43</v>
+        <v>3.74</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>12.35</v>
+        <v>1.24</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>25.21</v>
+        <v>2.52</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>13.22</v>
+        <v>1.32</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.91</v>
+        <v>0.19</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>25.32</v>
+        <v>2.53</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>10.88</v>
+        <v>1.09</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>9.57</v>
+        <v>0.96</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>15.66</v>
+        <v>1.57</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>47</v>
+        <v>4.7</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>7.03</v>
+        <v>0.7</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>15.42</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41589.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>14.83</v>
+        <v>1.48</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>11.24</v>
+        <v>1.12</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>32.19</v>
+        <v>3.22</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>26.83</v>
+        <v>2.68</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>11.91</v>
+        <v>1.19</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>46.41</v>
+        <v>4.64</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>17.97</v>
+        <v>1.8</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>8.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>12.04</v>
+        <v>1.2</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>12.98</v>
+        <v>1.3</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>13.82</v>
+        <v>1.38</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>11.65</v>
+        <v>1.17</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>16.55</v>
+        <v>1.66</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>9.76</v>
+        <v>0.98</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>170.19</v>
+        <v>17.02</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>32.62</v>
+        <v>3.26</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>21.97</v>
+        <v>2.2</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.67</v>
+        <v>0.17</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>22.46</v>
+        <v>2.25</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>9.48</v>
+        <v>0.95</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>8.33</v>
+        <v>0.83</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>9.82</v>
+        <v>0.98</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>13.64</v>
+        <v>1.36</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>42.19</v>
+        <v>4.22</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>6.13</v>
+        <v>0.61</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>13.42</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_157.xlsx
+++ b/DATA_goal/Junction_Flooding_157.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41589.34027777778</v>
+        <v>44838.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.91</v>
+        <v>1.63</v>
       </c>
       <c r="C2" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="G2" s="4" t="n">
         <v>1.28</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>1.5</v>
-      </c>
       <c r="H2" s="4" t="n">
-        <v>4.77</v>
+        <v>3.92</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.32</v>
+        <v>1.98</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.97</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.6</v>
+        <v>1.37</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.09</v>
+        <v>1.77</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>22.04</v>
+        <v>18.72</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.16</v>
+        <v>3.55</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.74</v>
+        <v>2.3</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.42</v>
+        <v>2.01</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.22</v>
+        <v>1.04</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.11</v>
+        <v>0.93</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.23</v>
+        <v>3.51</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.63</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.73</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41589.34722222222</v>
+        <v>44838.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.88</v>
+        <v>1.87</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.59</v>
+        <v>1.34</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.9</v>
+        <v>4.06</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.51</v>
+        <v>3.26</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.7</v>
+        <v>1.47</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.93</v>
+        <v>5.57</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.07</v>
+        <v>2.27</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.45</v>
+        <v>0.98</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.65</v>
+        <v>1.45</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.76</v>
+        <v>1.62</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.78</v>
+        <v>1.7</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.22</v>
+        <v>0.47</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.47</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.97</v>
+        <v>2.07</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.61</v>
+        <v>1.26</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>9.800000000000001</v>
+        <v>21.59</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.95</v>
+        <v>4.1</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.64</v>
+        <v>1.35</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.27</v>
+        <v>2.72</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.65</v>
+        <v>1.42</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.39</v>
+        <v>2.73</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.52</v>
+        <v>1.07</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.61</v>
+        <v>1.26</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.78</v>
+        <v>1.71</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.68</v>
+        <v>5.09</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.34</v>
+        <v>0.75</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.8</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41589.35416666666</v>
+        <v>44838.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.34</v>
       </c>
       <c r="C4" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="T4" s="4" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="4" t="n">
+      <c r="Z4" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AG4" s="4" t="n">
         <v>0.12</v>
       </c>
-      <c r="V4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AF4" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AG4" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="AH4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41589.36111111111</v>
+        <v>44838.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.03</v>
+        <v>1.87</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.12</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.41</v>
+        <v>4.07</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.67</v>
+        <v>3.31</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.67</v>
+        <v>1.47</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.6</v>
+        <v>5.32</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.47</v>
+        <v>2.27</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="R5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
-      <c r="S5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>5.06</v>
+        <v>4.81</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.76</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.84</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41589.36805555555</v>
+        <v>44838.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.34</v>
+        <v>11.05</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.03</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.09</v>
+        <v>0.8</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>2.91</v>
+        <v>24.02</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.44</v>
+        <v>19.4</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.11</v>
+        <v>8.67</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>4.28</v>
+        <v>35.98</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.63</v>
+        <v>13.38</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.74</v>
+        <v>5.89</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.09</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.18</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.26</v>
+        <v>10.14</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.34</v>
+        <v>2.78</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.06</v>
+        <v>8.65</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.5</v>
+        <v>12.27</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.89</v>
+        <v>7.39</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.62</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.51</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>15.44</v>
+        <v>124.3</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>2.97</v>
+        <v>24.27</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.98</v>
+        <v>7.98</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.99</v>
+        <v>16.2</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.04</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.16</v>
+        <v>1.4</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.07</v>
+        <v>17.21</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.86</v>
+        <v>7.05</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.76</v>
+        <v>6.3</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.89</v>
+        <v>7.41</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.24</v>
+        <v>10.12</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.03</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>3.91</v>
+        <v>32.94</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.55</v>
+        <v>4.43</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41589.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41589.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>17.82</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41589.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41589.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>17.02</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41589.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>19.64</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>14.85</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>42.66</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>35.47</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>15.67</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>59.55</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>23.79</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>17.18</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>18.25</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>15.41</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>21.94</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>12.86</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>227.4</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>43.1</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>14.23</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>29.08</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>15.26</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>11.02</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>18.06</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>54.03</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>17.76</v>
+        <v>9.98</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_157.xlsx
+++ b/DATA_goal/Junction_Flooding_157.xlsx
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44838.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.63</v>
+        <v>16.33</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.09</v>
+        <v>10.88</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.75</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.48</v>
+        <v>34.79</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.71</v>
+        <v>27.08</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.83</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.92</v>
+        <v>39.21</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.98</v>
+        <v>19.78</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.09</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.37</v>
+        <v>13.72</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.43</v>
+        <v>14.29</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.1</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.78</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.15</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.32</v>
+        <v>3.15</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.02</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>18.72</v>
+        <v>187.2</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.55</v>
+        <v>35.47</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.8</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.3</v>
+        <v>23.04</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.67</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.32</v>
+        <v>3.17</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.01</v>
+        <v>20.07</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.42</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.93</v>
+        <v>9.34</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.12</v>
+        <v>11.22</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.44</v>
+        <v>14.44</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.51</v>
+        <v>35.15</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.32</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44838.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.87</v>
+        <v>18.74</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.34</v>
+        <v>13.4</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.85</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.06</v>
+        <v>40.61</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.26</v>
+        <v>32.59</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.47</v>
+        <v>14.72</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.57</v>
+        <v>55.67</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.27</v>
+        <v>22.69</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.85</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.45</v>
+        <v>14.5</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.62</v>
+        <v>16.23</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.7</v>
+        <v>17.02</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.71</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.47</v>
+        <v>14.66</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.07</v>
+        <v>20.69</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.61</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>21.59</v>
+        <v>215.86</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.1</v>
+        <v>41</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.53</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.72</v>
+        <v>27.22</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.42</v>
+        <v>14.16</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.73</v>
+        <v>27.33</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.2</v>
+        <v>11.95</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.07</v>
+        <v>10.69</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.64</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.71</v>
+        <v>17.05</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.09</v>
+        <v>50.89</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.47</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.69</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44838.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.36</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.25</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.29</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.65</v>
+        <v>16.46</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.69</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.89</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.3</v>
+        <v>2.96</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.63</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.69</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.53</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>3.28</v>
+        <v>32.81</v>
       </c>
       <c r="U4" s="4" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.77</v>
       </c>
-      <c r="V4" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>1.56</v>
+        <v>15.63</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.3</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44838.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.87</v>
+        <v>18.74</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.37</v>
+        <v>13.74</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.18</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.07</v>
+        <v>40.73</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.31</v>
+        <v>33.12</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.47</v>
+        <v>14.72</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.32</v>
+        <v>53.2</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.27</v>
+        <v>22.69</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1</v>
+        <v>10.01</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.81</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.34</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.72</v>
+        <v>17.21</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.71</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.47</v>
+        <v>14.66</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.08</v>
+        <v>20.8</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.43</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>21.58</v>
+        <v>215.84</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.09</v>
+        <v>40.88</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.35</v>
+        <v>13.53</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.74</v>
+        <v>27.4</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.38</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.26</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.63</v>
+        <v>26.29</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.2</v>
+        <v>11.95</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.62</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.5</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.72</v>
+        <v>17.16</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.81</v>
+        <v>48.12</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.58</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.69</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_157.xlsx
+++ b/DATA_goal/Junction_Flooding_157.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,58 +655,58 @@
         <v>44838.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>16.33</v>
+        <v>16.334</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>10.88</v>
+        <v>10.878</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.75</v>
+        <v>3.753</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>34.79</v>
+        <v>34.787</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>27.08</v>
+        <v>27.078</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>12.83</v>
+        <v>12.827</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>39.21</v>
+        <v>39.214</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>19.78</v>
+        <v>19.779</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.09</v>
+        <v>8.095000000000001</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>12.09</v>
+        <v>12.091</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>13.72</v>
+        <v>13.724</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>14.29</v>
+        <v>14.293</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.1</v>
+        <v>4.102</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>12.78</v>
+        <v>12.783</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>17.7</v>
+        <v>17.703</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.15</v>
+        <v>11.145</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.15</v>
+        <v>3.152</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.02</v>
+        <v>2.018</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>187.2</v>
@@ -715,43 +715,43 @@
         <v>35.47</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>11.8</v>
+        <v>11.799</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>23.04</v>
+        <v>23.043</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>11.67</v>
+        <v>11.665</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>3.17</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>20.07</v>
+        <v>20.069</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.42</v>
+        <v>10.422</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.34</v>
+        <v>9.335000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.22</v>
+        <v>11.223</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.44</v>
+        <v>14.442</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.31</v>
+        <v>3.314</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>35.15</v>
+        <v>35.145</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.32</v>
+        <v>6.324</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>14.75</v>
+        <v>14.751</v>
       </c>
     </row>
     <row r="3">
@@ -759,100 +759,100 @@
         <v>44838.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>18.74</v>
+        <v>18.737</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.4</v>
+        <v>13.397</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.85</v>
+        <v>1.855</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>40.61</v>
+        <v>40.613</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>32.59</v>
+        <v>32.594</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.72</v>
+        <v>14.718</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>55.67</v>
+        <v>55.671</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>22.69</v>
+        <v>22.687</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.85</v>
+        <v>9.846</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14.5</v>
+        <v>14.496</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>16.23</v>
+        <v>16.232</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>17.02</v>
+        <v>17.021</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>4.71</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14.66</v>
+        <v>14.663</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>20.69</v>
+        <v>20.687</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.61</v>
+        <v>12.612</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.5</v>
+        <v>1.504</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.13</v>
+        <v>1.133</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>215.86</v>
+        <v>215.862</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>41</v>
+        <v>41.004</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.53</v>
+        <v>13.534</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>27.22</v>
+        <v>27.216</v>
       </c>
       <c r="X3" s="4" t="n">
         <v>14.16</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.62</v>
+        <v>2.619</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>27.33</v>
+        <v>27.335</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.95</v>
+        <v>11.955</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.69</v>
+        <v>10.695</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.64</v>
+        <v>12.645</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>17.05</v>
+        <v>17.055</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>50.89</v>
+        <v>50.893</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.47</v>
+        <v>7.467</v>
       </c>
       <c r="AH3" s="4" t="n">
         <v>16.92</v>
@@ -863,103 +863,103 @@
         <v>44838.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.36</v>
+        <v>3.363</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.08</v>
+        <v>2.077</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.87</v>
+        <v>0.871</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>7.25</v>
+        <v>7.254</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>5.29</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.62</v>
+        <v>2.623</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>16.46</v>
+        <v>16.465</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.07</v>
+        <v>4.072</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.69</v>
+        <v>1.689</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.2</v>
+        <v>2.204</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.89</v>
+        <v>2.892</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.96</v>
+        <v>2.955</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.86</v>
+        <v>0.861</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.63</v>
+        <v>2.632</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.69</v>
+        <v>3.691</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.53</v>
+        <v>2.533</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.907</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>32.81</v>
+        <v>32.815</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>7.75</v>
+        <v>7.748</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.43</v>
+        <v>2.429</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>4.95</v>
+        <v>4.952</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.43</v>
+        <v>2.433</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.801</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.39</v>
+        <v>7.393</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.15</v>
+        <v>2.146</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.05</v>
+        <v>2.052</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.43</v>
+        <v>2.425</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.02</v>
+        <v>3.022</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>15.63</v>
+        <v>15.635</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.2</v>
+        <v>1.203</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.04</v>
+        <v>3.041</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>16.92</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44838.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>24.02</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.67</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>35.98</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>13.38</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>10.14</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>12.27</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>124.3</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>24.27</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>17.21</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>32.94</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.98</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_157.xlsx
+++ b/DATA_goal/Junction_Flooding_157.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -967,103 +967,207 @@
         <v>44838.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>18.74</v>
+        <v>18.737</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.74</v>
+        <v>13.741</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.18</v>
+        <v>1.176</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>40.73</v>
+        <v>40.726</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>33.12</v>
+        <v>33.118</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>14.72</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>53.2</v>
+        <v>53.204</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>22.69</v>
+        <v>22.687</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.01</v>
+        <v>10.015</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.81</v>
+        <v>14.808</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.34</v>
+        <v>16.339</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17.21</v>
+        <v>17.212</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.71</v>
+        <v>4.708</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>14.66</v>
+        <v>14.663</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>20.8</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.43</v>
+        <v>12.426</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.789</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>215.84</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>40.88</v>
+        <v>40.878</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.53</v>
+        <v>13.534</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>27.4</v>
+        <v>27.395</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.38</v>
+        <v>14.381</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.26</v>
+        <v>2.261</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>26.29</v>
+        <v>26.295</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.95</v>
+        <v>11.955</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.62</v>
+        <v>10.619</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.5</v>
+        <v>12.503</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>17.16</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.553</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>48.12</v>
+        <v>48.123</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.58</v>
+        <v>7.576</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>16.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44838.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>24.02</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>35.98</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>13.38</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>124.3</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>24.27</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>17.21</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>32.94</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>9.98</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_157.xlsx
+++ b/DATA_goal/Junction_Flooding_157.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -967,207 +967,103 @@
         <v>44838.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>18.737</v>
+        <v>18.74</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.741</v>
+        <v>13.74</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.176</v>
+        <v>1.18</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>40.726</v>
+        <v>40.73</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>33.118</v>
+        <v>33.12</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>14.72</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>53.204</v>
+        <v>53.2</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>22.687</v>
+        <v>22.69</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.015</v>
+        <v>10.01</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.808</v>
+        <v>14.81</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.339</v>
+        <v>16.34</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17.212</v>
+        <v>17.21</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.708</v>
+        <v>4.71</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>14.663</v>
+        <v>14.66</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>20.8</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.426</v>
+        <v>12.43</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.789</v>
+        <v>0.79</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>215.84</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>40.878</v>
+        <v>40.88</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.534</v>
+        <v>13.53</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>27.395</v>
+        <v>27.4</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.381</v>
+        <v>14.38</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.261</v>
+        <v>2.26</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>26.295</v>
+        <v>26.29</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.955</v>
+        <v>11.95</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.619</v>
+        <v>10.62</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.503</v>
+        <v>12.5</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>17.16</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>48.123</v>
+        <v>48.12</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.576</v>
+        <v>7.58</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>16.92</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44838.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>24.02</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.67</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>35.98</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>13.38</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>10.14</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>12.27</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>124.3</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>24.27</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>17.21</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>32.94</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.98</v>
       </c>
     </row>
   </sheetData>
